--- a/SocorroPOINoLongLat.xlsx
+++ b/SocorroPOINoLongLat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayla\Documents\NMTCODE\NMT-REU-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17888922-E91B-43F0-B34D-01C5FBB6965C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A8072D-503B-459E-B89C-F56967DD4DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="0" windowWidth="18600" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="264">
-  <si>
-    <t>name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="121">
   <si>
     <t>category</t>
   </si>
@@ -37,9 +34,6 @@
     <t>subcategory3</t>
   </si>
   <si>
-    <t>Paradise Travel Management</t>
-  </si>
-  <si>
     <t>hotels &amp; travel</t>
   </si>
   <si>
@@ -49,766 +43,343 @@
     <t>travel agents</t>
   </si>
   <si>
-    <t>Midway Mobile Home &amp; RV Park</t>
-  </si>
-  <si>
     <t>rv parks</t>
   </si>
   <si>
-    <t>Dos Casitas En Socorro Bed And Breakfast</t>
-  </si>
-  <si>
     <t>bed &amp; breakfast</t>
   </si>
   <si>
-    <t>Best Western Socorro Hotel And Suites</t>
-  </si>
-  <si>
     <t>hotels</t>
   </si>
   <si>
-    <t>Comfort Inn &amp; Suites</t>
-  </si>
-  <si>
-    <t>Super 8 by Wyndham Socorro</t>
-  </si>
-  <si>
-    <t>Holiday Inn Express Socorro</t>
-  </si>
-  <si>
-    <t>America's Best Value Inn</t>
-  </si>
-  <si>
-    <t>San Miguel Inn</t>
-  </si>
-  <si>
-    <t>Econo Lodge Inn &amp; Suites</t>
-  </si>
-  <si>
-    <t>Days Inn by Wyndham Socorro</t>
-  </si>
-  <si>
-    <t>Economy Inn</t>
-  </si>
-  <si>
-    <t>Socorro Airport (ONM)</t>
-  </si>
-  <si>
     <t>airports</t>
   </si>
   <si>
-    <t>St Paul United Methodist Church</t>
-  </si>
-  <si>
     <t>religious organizations</t>
   </si>
   <si>
     <t>churches</t>
   </si>
   <si>
-    <t>Socorro Seventh-Day Adventist</t>
-  </si>
-  <si>
-    <t>Epiphany Episcopal Church</t>
-  </si>
-  <si>
-    <t>Church of Jesus Christ of Latter-day Saints</t>
-  </si>
-  <si>
-    <t>Socorro Church of Christ</t>
-  </si>
-  <si>
-    <t>San Miguel Church</t>
-  </si>
-  <si>
-    <t>First Presbytarian Church</t>
-  </si>
-  <si>
-    <t>First Baptist Church</t>
-  </si>
-  <si>
-    <t>Calvary Chapel</t>
-  </si>
-  <si>
-    <t>Socorro Baptist Temple</t>
-  </si>
-  <si>
-    <t>Family Christian Center</t>
-  </si>
-  <si>
-    <t>Shell</t>
-  </si>
-  <si>
     <t>automotive</t>
   </si>
   <si>
     <t>gas stations</t>
   </si>
   <si>
-    <t>Circle K</t>
-  </si>
-  <si>
-    <t>A-X Conoco</t>
-  </si>
-  <si>
-    <t>Valero</t>
-  </si>
-  <si>
-    <t>Exxon</t>
-  </si>
-  <si>
-    <t>Alon</t>
-  </si>
-  <si>
-    <t>U-haul Neighborhood Dealer</t>
-  </si>
-  <si>
     <t>truck rental</t>
   </si>
   <si>
     <t>trailer rental</t>
   </si>
   <si>
-    <t>Goehrings Body Shop</t>
-  </si>
-  <si>
     <t>body shop</t>
   </si>
   <si>
-    <t>Quick &amp; Easy Tire &amp; Lube</t>
-  </si>
-  <si>
     <t>auto repair</t>
   </si>
   <si>
-    <t>Leseberg's Auto</t>
-  </si>
-  <si>
     <t>car dealers</t>
   </si>
   <si>
-    <t>Hicks Body Shop &amp; Towing</t>
-  </si>
-  <si>
-    <t>C Bar D Trailer Sales &amp; Services</t>
-  </si>
-  <si>
     <t>auto detailing</t>
   </si>
   <si>
-    <t>AutoZone</t>
-  </si>
-  <si>
     <t>auto parts</t>
   </si>
   <si>
-    <t>Socorro Soccer and Rodeo Complex</t>
-  </si>
-  <si>
     <t>arts &amp; entertainment</t>
   </si>
   <si>
     <t>rodeo</t>
   </si>
   <si>
-    <t>Socorro General Hospital</t>
-  </si>
-  <si>
     <t>health &amp; medical</t>
   </si>
   <si>
     <t>hospitals</t>
   </si>
   <si>
-    <t>La Vida Felicidad</t>
-  </si>
-  <si>
     <t>home health care</t>
   </si>
   <si>
-    <t>Socorro Physical Therapy</t>
-  </si>
-  <si>
     <t>physical therapy</t>
   </si>
   <si>
-    <t>C. Bonner Oats, DDS</t>
-  </si>
-  <si>
     <t>dentists</t>
   </si>
   <si>
-    <t>Duane H. Beers, DND, PC</t>
-  </si>
-  <si>
-    <t>PHI Air Medical</t>
-  </si>
-  <si>
-    <t>PMS - Socorro Mental Health</t>
-  </si>
-  <si>
     <t>counseling &amp; mental health</t>
   </si>
   <si>
-    <t>Presbyterian Medical Services/ Socorro Community Health Center</t>
-  </si>
-  <si>
-    <t>Mi Jacalito</t>
-  </si>
-  <si>
     <t>food</t>
   </si>
   <si>
     <t>food trucks</t>
   </si>
   <si>
-    <t>M Mountain Coffee</t>
-  </si>
-  <si>
     <t>coffee &amp; tea</t>
   </si>
   <si>
-    <t>Sweet Occasions</t>
-  </si>
-  <si>
     <t>bakeries</t>
   </si>
   <si>
-    <t>John Brooks Supermarket</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
-    <t>Socorro Farmers Market</t>
-  </si>
-  <si>
     <t>farmers market</t>
   </si>
   <si>
-    <t>Capitol Bar</t>
-  </si>
-  <si>
     <t>nightlife</t>
   </si>
   <si>
     <t>bars</t>
   </si>
   <si>
-    <t>El Camino Restaurant &amp; Lounge</t>
-  </si>
-  <si>
     <t>lounges</t>
   </si>
   <si>
-    <t>Bureau of Land Management</t>
-  </si>
-  <si>
     <t>public services &amp; government</t>
   </si>
   <si>
-    <t>Socorro County Historical Society</t>
-  </si>
-  <si>
     <t>landmarks &amp; historical buildings</t>
   </si>
   <si>
-    <t>Socorro Historic Plaza</t>
-  </si>
-  <si>
-    <t>Sedillo Park</t>
-  </si>
-  <si>
     <t>parks</t>
   </si>
   <si>
-    <t>Clark Field</t>
-  </si>
-  <si>
-    <t>Hammel Museum</t>
-  </si>
-  <si>
     <t>museums</t>
   </si>
   <si>
-    <t>NMT Campus Police</t>
-  </si>
-  <si>
     <t>police departments</t>
   </si>
   <si>
-    <t>United States Post office</t>
-  </si>
-  <si>
     <t>post offices</t>
   </si>
   <si>
-    <t>Division of Vocational Rehabilitaiton (DVR)</t>
-  </si>
-  <si>
-    <t>El Camino Real Housing Authority</t>
-  </si>
-  <si>
-    <t>San Miguel Cemetery</t>
-  </si>
-  <si>
     <t>local services</t>
   </si>
   <si>
     <t>cemeteries</t>
   </si>
   <si>
-    <t>Good Samaritan Village</t>
-  </si>
-  <si>
     <t>community service/non-profit</t>
   </si>
   <si>
-    <t>UPS Customer Center</t>
-  </si>
-  <si>
     <t>shipping centers</t>
   </si>
   <si>
-    <t>NM State Forestry Department</t>
-  </si>
-  <si>
     <t>forestry</t>
   </si>
   <si>
-    <t>Socorro Animal Control</t>
-  </si>
-  <si>
     <t>pest control</t>
   </si>
   <si>
-    <t>Milton Ulibarri Pest Management</t>
-  </si>
-  <si>
-    <t>Daniels Family Funeral Service</t>
-  </si>
-  <si>
     <t>funeral services &amp; cemeteries</t>
   </si>
   <si>
     <t>community services/non-profit</t>
   </si>
   <si>
-    <t>Winton Appraisal Co.</t>
-  </si>
-  <si>
     <t>appraisal services</t>
   </si>
   <si>
-    <t>Chartwells</t>
-  </si>
-  <si>
     <t>restaurants</t>
   </si>
   <si>
-    <t>Socorro Spring Restaurants</t>
-  </si>
-  <si>
     <t>american (new)</t>
   </si>
   <si>
-    <t>Sourdough Mine Restaurant</t>
-  </si>
-  <si>
-    <t>Yo Mama's Grill</t>
-  </si>
-  <si>
     <t>steakhouses</t>
   </si>
   <si>
     <t>seafood</t>
   </si>
   <si>
-    <t>Bodega Burger Co. And Lounge</t>
-  </si>
-  <si>
     <t>burgers</t>
   </si>
   <si>
-    <t>Burger King</t>
-  </si>
-  <si>
     <t>fast food</t>
   </si>
   <si>
-    <t>Blake's Lotaburger</t>
-  </si>
-  <si>
     <t>breakfast &amp; brunch</t>
   </si>
   <si>
     <t>hot dogs</t>
   </si>
   <si>
-    <t>China Best Buffet</t>
-  </si>
-  <si>
     <t>chinese</t>
   </si>
   <si>
     <t>buffets</t>
   </si>
   <si>
-    <t>McDonald's</t>
-  </si>
-  <si>
-    <t>Sonic Drive-In</t>
-  </si>
-  <si>
     <t>ice cream &amp; frozen yogurt</t>
   </si>
   <si>
-    <t>Armijo's Mexican Restaurant</t>
-  </si>
-  <si>
     <t>mexican</t>
   </si>
   <si>
-    <t>El Sombrero Café</t>
-  </si>
-  <si>
-    <t>La Pasadita Café</t>
-  </si>
-  <si>
-    <t>El Camino Restaurants &amp; Lounge</t>
-  </si>
-  <si>
-    <t>Don Juan's Cocina</t>
-  </si>
-  <si>
-    <t>Sofia's Kitchen and Burrito Tyme</t>
-  </si>
-  <si>
-    <t>Little Caesars Pizza</t>
-  </si>
-  <si>
     <t>pizza</t>
   </si>
   <si>
-    <t>Domino's Pizza</t>
-  </si>
-  <si>
     <t>chicken wings</t>
   </si>
   <si>
     <t>sandwiches</t>
   </si>
   <si>
-    <t>Subway</t>
-  </si>
-  <si>
-    <t>Socorro Animal Shelter</t>
-  </si>
-  <si>
     <t>pets</t>
   </si>
   <si>
     <t>animal shelters</t>
   </si>
   <si>
-    <t>Ark of Socorro Veterinary Clinic</t>
-  </si>
-  <si>
     <t>veterinarians</t>
   </si>
   <si>
-    <t>Animal Haven Veterinary Clinic</t>
-  </si>
-  <si>
-    <t>Dollar Tree</t>
-  </si>
-  <si>
     <t>shopping</t>
   </si>
   <si>
     <t>discount stores</t>
   </si>
   <si>
-    <t>Family Dollar</t>
-  </si>
-  <si>
-    <t>Verizon Authorized Retailer - Russel Cellular</t>
-  </si>
-  <si>
     <t>mobile phones</t>
   </si>
   <si>
-    <t>Alamo Gallery And Gifts</t>
-  </si>
-  <si>
     <t>flowers &amp; gifts</t>
   </si>
   <si>
-    <t>Harold's Southwestern Gifts</t>
-  </si>
-  <si>
     <t>gift shops</t>
   </si>
   <si>
-    <t>Sundance Gifts</t>
-  </si>
-  <si>
-    <t>Casa de Regalos</t>
-  </si>
-  <si>
-    <t>Jessie's</t>
-  </si>
-  <si>
     <t>fashion</t>
   </si>
   <si>
     <t>women's clothing</t>
   </si>
   <si>
-    <t>Secondhand Rose Thrift Shop</t>
-  </si>
-  <si>
     <t>thrift stores</t>
   </si>
   <si>
-    <t>Socorro True Value Hardware</t>
-  </si>
-  <si>
     <t>home &amp; garden</t>
   </si>
   <si>
     <t>hardware stores</t>
   </si>
   <si>
-    <t>San Miguel Potteryland</t>
-  </si>
-  <si>
-    <t>Aaron's</t>
-  </si>
-  <si>
     <t>furniture stores</t>
   </si>
   <si>
-    <t>Vertu Fine Art Gallery</t>
-  </si>
-  <si>
     <t>art galleries</t>
   </si>
   <si>
-    <t>Socorro Flea Market</t>
-  </si>
-  <si>
     <t>flea markets</t>
   </si>
   <si>
-    <t>Walmart Supercenter</t>
-  </si>
-  <si>
     <t>department stores</t>
   </si>
   <si>
-    <t>Socorro High School</t>
-  </si>
-  <si>
     <t>education</t>
   </si>
   <si>
     <t>middle &amp; high schools</t>
   </si>
   <si>
-    <t>Parkview Elementary School</t>
-  </si>
-  <si>
     <t>elementary schools</t>
   </si>
   <si>
-    <t>Cottonwood Valley Charter School</t>
-  </si>
-  <si>
-    <t>Raymond S. Sarracino Middle School</t>
-  </si>
-  <si>
-    <t>New Mexico Insitute of Mining and Technology</t>
-  </si>
-  <si>
     <t>colleges &amp; universities</t>
   </si>
   <si>
-    <t>NMT Swimming Pool</t>
-  </si>
-  <si>
     <t>active life</t>
   </si>
   <si>
     <t>swimming pools</t>
   </si>
   <si>
-    <t>Sedillo Park Swimming Pool</t>
-  </si>
-  <si>
-    <t>NMT Gym</t>
-  </si>
-  <si>
     <t>fitness &amp; instructions</t>
   </si>
   <si>
     <t>gyms</t>
   </si>
   <si>
-    <t>NMT Golf Course</t>
-  </si>
-  <si>
     <t>golf</t>
   </si>
   <si>
-    <t>Washington Federal</t>
-  </si>
-  <si>
     <t>financial services</t>
   </si>
   <si>
     <t>banks &amp; credit unions</t>
   </si>
   <si>
-    <t>First State Bank</t>
-  </si>
-  <si>
-    <t>Nusenda Credit Union</t>
-  </si>
-  <si>
-    <t>Wells Fargo Bank</t>
-  </si>
-  <si>
-    <t>Ritter Richard T CPA</t>
-  </si>
-  <si>
     <t>tax services</t>
   </si>
   <si>
-    <t>Bookkeeping &amp; Tax Keeping</t>
-  </si>
-  <si>
-    <t>Damien Ocampo State Farm Agency</t>
-  </si>
-  <si>
     <t>insurance</t>
   </si>
   <si>
-    <t>Michael Olguin Insurance Agent</t>
-  </si>
-  <si>
-    <t>Security Title Abstract Co. Inc.</t>
-  </si>
-  <si>
     <t>title loans</t>
   </si>
   <si>
-    <t>Farm Bureau Financial Services</t>
-  </si>
-  <si>
-    <t>102.1 KYRN - Rio Grande Valley Radio</t>
-  </si>
-  <si>
     <t xml:space="preserve">mass media </t>
   </si>
   <si>
     <t>radio stations</t>
   </si>
   <si>
-    <t>El Defensor Chieftain</t>
-  </si>
-  <si>
     <t>print media</t>
   </si>
   <si>
-    <t>JH Enterprises LLC</t>
-  </si>
-  <si>
     <t>professional services</t>
   </si>
   <si>
     <t>advertising</t>
   </si>
   <si>
-    <t>Ether Tear, LLC</t>
-  </si>
-  <si>
     <t>web design</t>
   </si>
   <si>
-    <t>AMEC Environment &amp; Infrastructure</t>
-  </si>
-  <si>
     <t>business consulting</t>
   </si>
   <si>
-    <t>Beckham &amp; Penner, CPA</t>
-  </si>
-  <si>
     <t>accountants</t>
   </si>
   <si>
     <t>bookkeepers</t>
   </si>
   <si>
-    <t>Deschamps Law Firm</t>
-  </si>
-  <si>
     <t>lawyers</t>
   </si>
   <si>
-    <t>Bar J Plumbing, LLC</t>
-  </si>
-  <si>
     <t>home services</t>
   </si>
   <si>
     <t>plumbing</t>
   </si>
   <si>
-    <t>Socorro Electric Cooperative</t>
-  </si>
-  <si>
     <t>utilities</t>
   </si>
   <si>
     <t>electricity suppliers</t>
   </si>
   <si>
-    <t>Frances Deters Property Care</t>
-  </si>
-  <si>
-    <t>Betty Houston - Coldwell Banker Legacy</t>
-  </si>
-  <si>
     <t>real estate</t>
   </si>
   <si>
     <t>real estate agents</t>
   </si>
   <si>
-    <t>Landers Enterprises</t>
-  </si>
-  <si>
     <t xml:space="preserve">real estate </t>
   </si>
   <si>
     <t>property management</t>
   </si>
   <si>
-    <t>Richardson Development Company</t>
-  </si>
-  <si>
     <t>home developers</t>
   </si>
   <si>
-    <t>Solaro Energy, Inc</t>
-  </si>
-  <si>
     <t>solar installation</t>
-  </si>
-  <si>
-    <t>Plaza Beauty Salon</t>
   </si>
   <si>
     <t>beauty &amp; spas</t>
@@ -1329,27 +900,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1047"/>
+  <dimension ref="A1:D1047"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
-    <col min="5" max="5" width="25.875" customWidth="1"/>
-    <col min="6" max="26" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="5" max="25" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1358,1707 +928,1263 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="4" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B48" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B53" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="5" t="s">
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="1" t="s">
+    </row>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B56" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="5" t="s">
+    </row>
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="5" t="s">
+    </row>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="5" t="s">
+    </row>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="5" t="s">
+    </row>
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    </row>
+    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="1" t="s">
+    </row>
+    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="1" t="s">
+    </row>
+    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="1" t="s">
+    </row>
+    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="1" t="s">
+    </row>
+    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="D78" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="1" t="s">
+    </row>
+    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="C81" t="s">
+        <v>58</v>
+      </c>
+      <c r="D81" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="1" t="s">
+    </row>
+    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="C82" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="7" t="s">
+    </row>
+    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83" t="s">
+        <v>59</v>
+      </c>
+      <c r="C83" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="1" t="s">
+    </row>
+    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B90" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="C92" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="D93" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="1" t="s">
+    </row>
+    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="1" t="s">
+    </row>
+    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="97" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    </row>
+    <row r="99" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="1" t="s">
+    </row>
+    <row r="101" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="1" t="s">
+    </row>
+    <row r="103" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C103" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="C105" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="106" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="107" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="C107" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="108" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="1" t="s">
+    </row>
+    <row r="110" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="111" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C51" s="1" t="s">
+    </row>
+    <row r="112" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="113" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="114" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B53" s="9" t="s">
+    </row>
+    <row r="115" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C53" t="s">
+    </row>
+    <row r="118" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="16" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B118" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" t="s">
+    </row>
+    <row r="119" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="10" t="s">
+    </row>
+    <row r="121" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="122" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B122" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="123" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    </row>
+    <row r="127" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="1" t="s">
+    </row>
+    <row r="129" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="131" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="1" t="s">
+    </row>
+    <row r="133" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="134" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="135" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="1" t="s">
+    </row>
+    <row r="136" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="137" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    </row>
+    <row r="138" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    </row>
+    <row r="140" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B66" s="11" t="s">
+    </row>
+    <row r="141" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="142" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="C142" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    </row>
+    <row r="144" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="C144" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="C145" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="B146" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B70" s="11" t="s">
+    </row>
+    <row r="147" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="B147" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="148" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>126</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>128</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C76" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>130</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C77" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>131</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C78" t="s">
-        <v>129</v>
-      </c>
-      <c r="D78" t="s">
-        <v>132</v>
-      </c>
-      <c r="E78" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C80" t="s">
-        <v>135</v>
-      </c>
-      <c r="D80" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>138</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C81" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81" t="s">
-        <v>135</v>
-      </c>
-      <c r="E81" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>141</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C82" t="s">
-        <v>142</v>
-      </c>
-      <c r="D82" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>144</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C83" t="s">
-        <v>137</v>
-      </c>
-      <c r="D83" t="s">
-        <v>135</v>
-      </c>
-      <c r="E83" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>145</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C84" t="s">
-        <v>137</v>
-      </c>
-      <c r="D84" t="s">
-        <v>135</v>
-      </c>
-      <c r="E84" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>147</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C85" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>149</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C86" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>150</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C87" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>77</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C88" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>151</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" t="s">
-        <v>148</v>
-      </c>
-      <c r="D89" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>152</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C90" t="s">
-        <v>148</v>
-      </c>
-      <c r="D90" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>153</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C91" t="s">
-        <v>148</v>
-      </c>
-      <c r="D91" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>154</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C92" t="s">
-        <v>155</v>
-      </c>
-      <c r="D92" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>156</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C93" t="s">
-        <v>155</v>
-      </c>
-      <c r="D93" t="s">
-        <v>157</v>
-      </c>
-      <c r="E93" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>159</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C94" t="s">
-        <v>158</v>
-      </c>
-      <c r="D94" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B112" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B118" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B119" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B123" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B124" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B125" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B126" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B127" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B128" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B129" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B130" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B131" s="17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B132" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B133" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B134" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B135" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B136" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B137" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B138" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B139" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B140" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B141" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B142" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B143" s="20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B144" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B145" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B146" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B147" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B148" s="22" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="149" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
